--- a/Dropbox/MOXIE/DESIGN/MOXIE Product Portfolio.xlsx
+++ b/Dropbox/MOXIE/DESIGN/MOXIE Product Portfolio.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Moxie Portfolio" sheetId="1" r:id="rId1"/>
     <sheet name="Graphical Portofolio" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Opportunities" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>AC/DC</t>
   </si>
@@ -185,6 +185,12 @@
   </si>
   <si>
     <t>Output Source Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC-DC 12V to 5V 34063 based mobile charger for Car battery </t>
+  </si>
+  <si>
+    <t>Low cost redi wala light + lantern</t>
   </si>
 </sst>
 </file>
@@ -538,6 +544,83 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -547,113 +630,36 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2107,26 +2113,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="18.75">
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
     </row>
     <row r="3" spans="2:22">
       <c r="D3" s="1" t="s">
@@ -2185,10 +2191,10 @@
       </c>
     </row>
     <row r="4" spans="2:22" ht="16.5" customHeight="1">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="36" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -2216,34 +2222,34 @@
       </c>
     </row>
     <row r="5" spans="2:22" ht="43.5" customHeight="1">
-      <c r="B5" s="35"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="13" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="21" t="s">
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="23"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="20"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
     <row r="6" spans="2:22">
-      <c r="B6" s="35"/>
-      <c r="C6" s="38"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -2264,8 +2270,8 @@
       <c r="U6" s="2"/>
     </row>
     <row r="7" spans="2:22">
-      <c r="B7" s="35"/>
-      <c r="C7" s="38"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -2279,17 +2285,17 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
-      <c r="Q7" s="29" t="s">
+      <c r="Q7" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="23"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="20"/>
     </row>
     <row r="8" spans="2:22">
-      <c r="B8" s="35"/>
-      <c r="C8" s="38"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -2310,8 +2316,8 @@
       <c r="U8" s="2"/>
     </row>
     <row r="9" spans="2:22">
-      <c r="B9" s="35"/>
-      <c r="C9" s="39"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -2332,8 +2338,8 @@
       <c r="U9" s="2"/>
     </row>
     <row r="10" spans="2:22">
-      <c r="B10" s="35"/>
-      <c r="C10" s="15" t="s">
+      <c r="B10" s="34"/>
+      <c r="C10" s="24" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -2363,13 +2369,13 @@
       </c>
     </row>
     <row r="11" spans="2:22" ht="36" customHeight="1">
-      <c r="B11" s="35"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="13" t="s">
+      <c r="B11" s="34"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -2387,8 +2393,8 @@
       <c r="U11" s="2"/>
     </row>
     <row r="12" spans="2:22">
-      <c r="B12" s="35"/>
-      <c r="C12" s="16"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -2409,8 +2415,8 @@
       <c r="U12" s="2"/>
     </row>
     <row r="13" spans="2:22">
-      <c r="B13" s="35"/>
-      <c r="C13" s="16"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -2423,18 +2429,18 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="29" t="s">
+      <c r="P13" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="23"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="20"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
     </row>
     <row r="14" spans="2:22">
-      <c r="B14" s="35"/>
-      <c r="C14" s="16"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -2455,8 +2461,8 @@
       <c r="U14" s="2"/>
     </row>
     <row r="15" spans="2:22">
-      <c r="B15" s="35"/>
-      <c r="C15" s="16"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -2477,8 +2483,8 @@
       <c r="U15" s="2"/>
     </row>
     <row r="16" spans="2:22">
-      <c r="B16" s="35"/>
-      <c r="C16" s="17"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -2499,8 +2505,8 @@
       <c r="U16" s="2"/>
     </row>
     <row r="17" spans="2:22">
-      <c r="B17" s="35"/>
-      <c r="C17" s="18" t="s">
+      <c r="B17" s="34"/>
+      <c r="C17" s="27" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="2"/>
@@ -2523,8 +2529,8 @@
       <c r="U17" s="2"/>
     </row>
     <row r="18" spans="2:22">
-      <c r="B18" s="35"/>
-      <c r="C18" s="19"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2545,8 +2551,8 @@
       <c r="U18" s="2"/>
     </row>
     <row r="19" spans="2:22">
-      <c r="B19" s="35"/>
-      <c r="C19" s="19"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="28"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -2567,8 +2573,8 @@
       <c r="U19" s="2"/>
     </row>
     <row r="20" spans="2:22">
-      <c r="B20" s="35"/>
-      <c r="C20" s="19"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -2589,8 +2595,8 @@
       <c r="U20" s="2"/>
     </row>
     <row r="21" spans="2:22">
-      <c r="B21" s="35"/>
-      <c r="C21" s="19"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="28"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -2611,8 +2617,8 @@
       <c r="U21" s="2"/>
     </row>
     <row r="22" spans="2:22">
-      <c r="B22" s="35"/>
-      <c r="C22" s="19"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="28"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -2633,8 +2639,8 @@
       <c r="U22" s="2"/>
     </row>
     <row r="23" spans="2:22">
-      <c r="B23" s="36"/>
-      <c r="C23" s="20"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -2655,10 +2661,10 @@
       <c r="U23" s="2"/>
     </row>
     <row r="24" spans="2:22" ht="15" customHeight="1">
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -2688,8 +2694,8 @@
       </c>
     </row>
     <row r="25" spans="2:22" ht="15" customHeight="1">
-      <c r="B25" s="28"/>
-      <c r="C25" s="30"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="5"/>
       <c r="E25" s="6" t="s">
         <v>42</v>
@@ -2715,12 +2721,12 @@
       </c>
     </row>
     <row r="26" spans="2:22" ht="32.25" customHeight="1">
-      <c r="B26" s="28"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="21" t="s">
+      <c r="B26" s="18"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="23"/>
+      <c r="E26" s="20"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -2742,8 +2748,8 @@
       </c>
     </row>
     <row r="27" spans="2:22">
-      <c r="B27" s="28"/>
-      <c r="C27" s="30"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -2764,8 +2770,8 @@
       <c r="U27" s="2"/>
     </row>
     <row r="28" spans="2:22">
-      <c r="B28" s="28"/>
-      <c r="C28" s="30"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="22"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -2786,8 +2792,8 @@
       <c r="U28" s="2"/>
     </row>
     <row r="29" spans="2:22">
-      <c r="B29" s="28"/>
-      <c r="C29" s="30"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -2808,8 +2814,8 @@
       <c r="U29" s="2"/>
     </row>
     <row r="30" spans="2:22">
-      <c r="B30" s="28"/>
-      <c r="C30" s="30"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -2830,8 +2836,8 @@
       <c r="U30" s="2"/>
     </row>
     <row r="31" spans="2:22">
-      <c r="B31" s="28"/>
-      <c r="C31" s="15" t="s">
+      <c r="B31" s="18"/>
+      <c r="C31" s="24" t="s">
         <v>22</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -2859,12 +2865,12 @@
       </c>
     </row>
     <row r="32" spans="2:22">
-      <c r="B32" s="28"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="29" t="s">
+      <c r="B32" s="18"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="23"/>
+      <c r="E32" s="20"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -2883,8 +2889,8 @@
       <c r="U32" s="2"/>
     </row>
     <row r="33" spans="2:22">
-      <c r="B33" s="28"/>
-      <c r="C33" s="16"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -2905,8 +2911,8 @@
       <c r="U33" s="2"/>
     </row>
     <row r="34" spans="2:22">
-      <c r="B34" s="28"/>
-      <c r="C34" s="16"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="25"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -2927,8 +2933,8 @@
       <c r="U34" s="2"/>
     </row>
     <row r="35" spans="2:22">
-      <c r="B35" s="28"/>
-      <c r="C35" s="16"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="25"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -2949,8 +2955,8 @@
       <c r="U35" s="2"/>
     </row>
     <row r="36" spans="2:22">
-      <c r="B36" s="28"/>
-      <c r="C36" s="16"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="25"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -2971,8 +2977,8 @@
       <c r="U36" s="2"/>
     </row>
     <row r="37" spans="2:22">
-      <c r="B37" s="28"/>
-      <c r="C37" s="17"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="26"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -2993,8 +2999,8 @@
       <c r="U37" s="2"/>
     </row>
     <row r="38" spans="2:22">
-      <c r="B38" s="28"/>
-      <c r="C38" s="18" t="s">
+      <c r="B38" s="18"/>
+      <c r="C38" s="27" t="s">
         <v>24</v>
       </c>
       <c r="D38" s="2"/>
@@ -3017,19 +3023,19 @@
       <c r="U38" s="2"/>
     </row>
     <row r="39" spans="2:22">
-      <c r="B39" s="28"/>
-      <c r="C39" s="19"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="28"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="31" t="s">
+      <c r="G39" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="33"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="32"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -3041,8 +3047,8 @@
       <c r="U39" s="2"/>
     </row>
     <row r="40" spans="2:22">
-      <c r="B40" s="28"/>
-      <c r="C40" s="19"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="28"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -3063,8 +3069,8 @@
       <c r="U40" s="2"/>
     </row>
     <row r="41" spans="2:22">
-      <c r="B41" s="28"/>
-      <c r="C41" s="19"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="28"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -3085,8 +3091,8 @@
       <c r="U41" s="2"/>
     </row>
     <row r="42" spans="2:22">
-      <c r="B42" s="28"/>
-      <c r="C42" s="19"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="28"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -3107,8 +3113,8 @@
       <c r="U42" s="2"/>
     </row>
     <row r="43" spans="2:22">
-      <c r="B43" s="28"/>
-      <c r="C43" s="19"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="28"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -3129,8 +3135,8 @@
       <c r="U43" s="2"/>
     </row>
     <row r="44" spans="2:22">
-      <c r="B44" s="28"/>
-      <c r="C44" s="20"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="29"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -3151,8 +3157,8 @@
       <c r="U44" s="2"/>
     </row>
     <row r="45" spans="2:22">
-      <c r="B45" s="28"/>
-      <c r="C45" s="24" t="s">
+      <c r="B45" s="18"/>
+      <c r="C45" s="14" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="5" t="s">
@@ -3180,12 +3186,12 @@
       </c>
     </row>
     <row r="46" spans="2:22">
-      <c r="B46" s="28"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="29" t="s">
+      <c r="B46" s="18"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E46" s="23"/>
+      <c r="E46" s="20"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -3204,8 +3210,8 @@
       <c r="U46" s="2"/>
     </row>
     <row r="47" spans="2:22">
-      <c r="B47" s="28"/>
-      <c r="C47" s="25"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="15"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -3226,8 +3232,8 @@
       <c r="U47" s="2"/>
     </row>
     <row r="48" spans="2:22">
-      <c r="B48" s="28"/>
-      <c r="C48" s="25"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="15"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -3248,8 +3254,8 @@
       <c r="U48" s="2"/>
     </row>
     <row r="49" spans="2:21">
-      <c r="B49" s="28"/>
-      <c r="C49" s="25"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="15"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -3270,8 +3276,8 @@
       <c r="U49" s="2"/>
     </row>
     <row r="50" spans="2:21">
-      <c r="B50" s="28"/>
-      <c r="C50" s="25"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="15"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -3292,8 +3298,8 @@
       <c r="U50" s="2"/>
     </row>
     <row r="51" spans="2:21">
-      <c r="B51" s="28"/>
-      <c r="C51" s="26"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="16"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -3315,6 +3321,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D2:U2"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="G5:R5"/>
     <mergeCell ref="C45:C51"/>
     <mergeCell ref="B24:B51"/>
     <mergeCell ref="D46:E46"/>
@@ -3328,12 +3340,6 @@
     <mergeCell ref="G39:L39"/>
     <mergeCell ref="B4:B23"/>
     <mergeCell ref="C4:C9"/>
-    <mergeCell ref="D2:U2"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="C10:C16"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="G5:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3344,7 +3350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -3360,111 +3366,111 @@
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="2:21" ht="18" customHeight="1">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="50" t="s">
         <v>46</v>
       </c>
       <c r="R3" s="8"/>
-      <c r="S3" s="40" t="s">
+      <c r="S3" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
     </row>
     <row r="4" spans="2:21" ht="18" customHeight="1">
-      <c r="B4" s="46"/>
-      <c r="E4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="E4" s="50"/>
       <c r="R4" s="9"/>
-      <c r="S4" s="40" t="s">
+      <c r="S4" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
     </row>
     <row r="5" spans="2:21" ht="18" customHeight="1">
-      <c r="B5" s="46"/>
-      <c r="E5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="E5" s="50"/>
       <c r="R5" s="10"/>
-      <c r="S5" s="40" t="s">
+      <c r="S5" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
     </row>
     <row r="6" spans="2:21" ht="18" customHeight="1">
-      <c r="B6" s="46"/>
-      <c r="E6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="E6" s="50"/>
     </row>
     <row r="7" spans="2:21" ht="18" customHeight="1">
-      <c r="B7" s="46"/>
-      <c r="E7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="E7" s="50"/>
     </row>
     <row r="8" spans="2:21" ht="18" customHeight="1">
-      <c r="B8" s="46"/>
-      <c r="E8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="E8" s="50"/>
     </row>
     <row r="9" spans="2:21" ht="18" customHeight="1">
-      <c r="B9" s="46"/>
-      <c r="E9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="E9" s="50"/>
     </row>
     <row r="10" spans="2:21" ht="18" customHeight="1">
-      <c r="B10" s="46"/>
-      <c r="E10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="E10" s="50"/>
     </row>
     <row r="11" spans="2:21" ht="18" customHeight="1">
-      <c r="B11" s="46"/>
-      <c r="E11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="E11" s="50"/>
     </row>
     <row r="12" spans="2:21" ht="18" customHeight="1">
-      <c r="B12" s="46"/>
-      <c r="E12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="E12" s="50"/>
     </row>
     <row r="13" spans="2:21" ht="18" customHeight="1">
-      <c r="B13" s="46"/>
-      <c r="E13" s="41" t="s">
+      <c r="B13" s="44"/>
+      <c r="E13" s="51" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="2:21" ht="18" customHeight="1">
-      <c r="B14" s="46"/>
-      <c r="E14" s="41"/>
+      <c r="B14" s="44"/>
+      <c r="E14" s="51"/>
     </row>
     <row r="15" spans="2:21" ht="18" customHeight="1">
-      <c r="B15" s="46"/>
-      <c r="E15" s="41"/>
+      <c r="B15" s="44"/>
+      <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:21" ht="18" customHeight="1">
-      <c r="B16" s="46"/>
-      <c r="E16" s="41"/>
+      <c r="B16" s="44"/>
+      <c r="E16" s="51"/>
     </row>
     <row r="17" spans="2:16" ht="18" customHeight="1">
-      <c r="B17" s="46"/>
-      <c r="E17" s="41"/>
+      <c r="B17" s="44"/>
+      <c r="E17" s="51"/>
     </row>
     <row r="18" spans="2:16" ht="18" customHeight="1">
-      <c r="B18" s="46"/>
-      <c r="E18" s="41"/>
+      <c r="B18" s="44"/>
+      <c r="E18" s="51"/>
     </row>
     <row r="19" spans="2:16" ht="18" customHeight="1">
-      <c r="B19" s="46"/>
-      <c r="E19" s="41"/>
+      <c r="B19" s="44"/>
+      <c r="E19" s="51"/>
     </row>
     <row r="20" spans="2:16" ht="18" customHeight="1">
-      <c r="B20" s="46"/>
-      <c r="E20" s="41"/>
+      <c r="B20" s="44"/>
+      <c r="E20" s="51"/>
     </row>
     <row r="21" spans="2:16" ht="18" customHeight="1">
-      <c r="B21" s="46"/>
-      <c r="E21" s="41"/>
+      <c r="B21" s="44"/>
+      <c r="E21" s="51"/>
     </row>
     <row r="22" spans="2:16" ht="18" customHeight="1">
-      <c r="B22" s="47"/>
-      <c r="E22" s="41"/>
+      <c r="B22" s="45"/>
+      <c r="E22" s="51"/>
     </row>
     <row r="23" spans="2:16" ht="18.75" customHeight="1">
-      <c r="E23" s="51"/>
+      <c r="E23" s="13"/>
       <c r="F23" s="42" t="s">
         <v>46</v>
       </c>
@@ -3480,54 +3486,54 @@
       <c r="P23" s="11"/>
     </row>
     <row r="26" spans="2:16">
-      <c r="F26" s="43">
+      <c r="F26" s="12">
         <v>3</v>
       </c>
-      <c r="G26" s="43">
+      <c r="G26" s="12">
         <v>5</v>
       </c>
-      <c r="H26" s="43">
+      <c r="H26" s="12">
         <v>10</v>
       </c>
-      <c r="I26" s="43">
+      <c r="I26" s="12">
         <v>20</v>
       </c>
-      <c r="J26" s="43">
+      <c r="J26" s="12">
         <v>40</v>
       </c>
-      <c r="K26" s="43">
+      <c r="K26" s="12">
         <v>60</v>
       </c>
-      <c r="L26" s="43">
+      <c r="L26" s="12">
         <v>80</v>
       </c>
-      <c r="M26" s="43">
+      <c r="M26" s="12">
         <v>100</v>
       </c>
-      <c r="N26" s="43">
+      <c r="N26" s="12">
         <v>120</v>
       </c>
-      <c r="O26" s="43">
+      <c r="O26" s="12">
         <v>150</v>
       </c>
-      <c r="P26" s="43">
+      <c r="P26" s="12">
         <v>180</v>
       </c>
     </row>
     <row r="28" spans="2:16" ht="17.25" customHeight="1">
-      <c r="F28" s="48" t="s">
+      <c r="F28" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="50"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3548,12 +3554,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="65.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>